--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19580" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -373,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,10 +431,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -717,21 +722,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
+    <col min="7" max="8" width="8.83203125" style="2"/>
     <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1032,7 +1038,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="23"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="11"/>
@@ -1054,7 +1060,7 @@
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="23"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="12">
@@ -1126,7 +1132,7 @@
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="23"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="11"/>
@@ -1150,7 +1156,7 @@
         <v>0.12</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="23"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="12">
@@ -1240,7 +1246,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="11"/>
@@ -1266,7 +1272,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="11"/>
@@ -1290,7 +1296,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12">
@@ -1342,7 +1348,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25" thickBot="1">
+    <row r="26" spans="1:12" ht="15" thickBot="1">
       <c r="A26" s="16"/>
       <c r="B26" s="14">
         <v>910</v>
@@ -1367,36 +1373,54 @@
       <c r="L26" s="24"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19580" windowHeight="12260"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19575" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,106 +244,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -353,32 +263,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,10 +288,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,36 +300,9 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -722,658 +593,658 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="2"/>
-    <col min="5" max="5" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" style="2"/>
-    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="4"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>42129</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>300264</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>18.5</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>600192</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>16.05</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>6</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>0.17799999999999999</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>0.188</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="12">
+      <c r="A6" s="8">
         <v>42130</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>300044</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
         <v>22</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
         <v>4</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>0.106</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="22"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10">
         <v>2270</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>22.5</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
         <v>4</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <v>0.1575</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>42131</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>300096</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>23.5</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>0.107</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>300058</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="9">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>34.299999999999997</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>0.106</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <v>0.1065</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="12">
+      <c r="A10" s="8">
         <v>42132</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>2405</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
         <v>43.5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="11">
         <v>0.19800000000000001</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10">
         <v>2544</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <v>34.799999999999997</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>0.182</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>42135</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>2312</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>60</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <v>0.23899999999999999</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
         <v>2501</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="9">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>21.35</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="12">
+      <c r="A14" s="8">
         <v>42136</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>2622</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>27</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
         <v>32.5</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14">
+      <c r="H14" s="9"/>
+      <c r="I14" s="10">
         <v>3</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <v>0.21299999999999999</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10">
         <v>532</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <v>20</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <v>22.5</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="23"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>42137</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>66</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>18.2</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
         <v>600119</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="9">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>28</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
         <v>2</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <v>0.12</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <v>42138</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>600058</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
         <v>28.1</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="23"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10">
         <v>2237</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <v>16.5</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="23"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10">
         <v>839</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <v>20</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="23"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>42139</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>600703</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>24.3</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>24</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>23.98</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>26.2</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6">
         <v>600188</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>14.98</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>14.53</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>16</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
         <v>600399</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>29.36</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>29</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>31.8</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="12">
+      <c r="A24" s="8">
         <v>42142</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>2195</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <v>56.6</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
         <v>63.25</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="23"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10">
         <v>2527</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>11.63</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
         <v>12.8</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10">
         <v>910</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <v>15.08</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
         <v>16.5</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="24"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="10"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -1386,15 +1257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1406,15 +1276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,82 @@
   </si>
   <si>
     <t>买入价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣泰电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.70-43.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺络电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.60-17.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏欣资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.10-15.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛狮科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百川股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆基机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.15/33.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普邦园林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威华股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.20-17.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛屯矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利达光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博腾股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西水股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯利泰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +671,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -607,8 +684,9 @@
     <col min="2" max="4" width="8.875" style="1"/>
     <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.875" style="1"/>
-    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1191,7 +1269,9 @@
         <v>63.25</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="8">
+        <v>42143</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="10"/>
@@ -1215,7 +1295,9 @@
         <v>12.8</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="8">
+        <v>42143</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="10"/>
@@ -1239,10 +1321,352 @@
         <v>16.5</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="8">
+        <v>42143</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="5">
+        <v>42143</v>
+      </c>
+      <c r="B27" s="6">
+        <v>300372</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44.01</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>48.2</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
+        <v>2138</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="6">
+        <v>17.95</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="6">
+        <v>17.78</v>
+      </c>
+      <c r="G28" s="6">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6">
+        <v>600490</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="6">
+        <v>15.37</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="6">
+        <v>15.25</v>
+      </c>
+      <c r="G29" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="8">
+        <v>42144</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2363</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10">
+        <v>2455</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9">
+        <v>2684</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="E32" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="F32" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10">
+        <v>2663</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="9">
+        <v>31.36</v>
+      </c>
+      <c r="E33" s="10">
+        <v>31</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10">
+        <v>2240</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="10">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9">
+        <v>600711</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="9">
+        <v>15.21</v>
+      </c>
+      <c r="E35" s="9">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10">
+        <v>2189</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="E36" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10">
+        <v>300363</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="10">
+        <v>53.7</v>
+      </c>
+      <c r="E37" s="10">
+        <v>53</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10">
+        <v>60</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="5">
+        <v>42145</v>
+      </c>
+      <c r="B38" s="6">
+        <v>600291</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="6">
+        <v>38.03</v>
+      </c>
+      <c r="E38" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>42.33</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6">
+        <v>2538</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="6">
+        <v>14.24</v>
+      </c>
+      <c r="E39" s="6">
+        <v>14</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6">
+        <v>300326</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E40" s="6">
+        <v>67</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>85</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佳创视讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>抚顺特钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.4-19.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.8-20.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.8-21.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.5-31.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.3-39.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.5-32.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.5-47.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.8-18.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.0-16.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.8-26.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.0-14.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.75-18.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二三四五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群兴玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大亚科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.40-56.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.50-11.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.90-15.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣泰电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.70-43.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏欣资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.10-15.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛狮科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百川股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆基机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.15/33.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普邦园林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威华股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.20-17.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛屯矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利达光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博腾股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西水股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯利泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺络电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.60-17.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兖州煤业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>14.70-14.80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,175 +243,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兖州煤业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抚顺特钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.4-19.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.8-20.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.8-21.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.5-31.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.3-39.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.5-32.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.5-47.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.8-18.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.0-16.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.8-26.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.0-14.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.75-18.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二三四五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群兴玩具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大亚科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.40-56.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.50-11.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.90-15.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣泰电气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.70-43.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺络电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.60-17.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏欣资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.10-15.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛狮科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百川股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隆基机械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.15/33.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普邦园林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威华股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.20-17.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛屯矿业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利达光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博腾股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西水股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司尔特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯利泰</t>
+    <t>11.61建议出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙报传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同大股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注(盈亏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +303,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +374,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +454,54 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,23 +799,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.875" style="1"/>
     <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="1"/>
     <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -721,22 +851,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -762,11 +892,11 @@
         <v>300264</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6">
@@ -790,7 +920,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -803,9 +933,7 @@
       <c r="J5" s="7">
         <v>0.17799999999999999</v>
       </c>
-      <c r="K5" s="7">
-        <v>0.188</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12">
@@ -818,7 +946,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10">
@@ -842,7 +970,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -855,9 +983,7 @@
       <c r="J7" s="11">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K7" s="11">
-        <v>0.1575</v>
-      </c>
+      <c r="K7" s="11"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
@@ -870,7 +996,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -894,7 +1020,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
@@ -907,9 +1033,7 @@
       <c r="J9" s="7">
         <v>0.106</v>
       </c>
-      <c r="K9" s="7">
-        <v>0.1065</v>
-      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12">
@@ -922,7 +1046,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
@@ -946,7 +1070,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10">
@@ -959,9 +1083,7 @@
       <c r="J11" s="11">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="11">
-        <v>0.182</v>
-      </c>
+      <c r="K11" s="11"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12">
@@ -974,7 +1096,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
@@ -998,7 +1120,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
@@ -1006,7 +1128,7 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1054,7 +1176,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -1070,7 +1192,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -1078,7 +1200,7 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="6"/>
@@ -1092,7 +1214,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -1118,7 +1240,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9">
@@ -1138,7 +1260,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10">
@@ -1158,7 +1280,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10">
@@ -1170,157 +1292,145 @@
       <c r="K20" s="11"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5">
+    <row r="21" spans="1:12" s="25" customFormat="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" s="23" customFormat="1">
+      <c r="A22" s="20">
         <v>42139</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B22" s="21">
         <v>600703</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="22">
         <v>24.3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="22">
         <v>24</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="22">
         <v>23.98</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="22">
         <v>26.2</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6">
+      <c r="H22" s="22">
+        <v>25.98</v>
+      </c>
+      <c r="I22" s="15">
+        <v>42145</v>
+      </c>
+      <c r="J22" s="22">
+        <v>390.51</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" s="18" customFormat="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16">
         <v>600188</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="17">
         <v>14.98</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="17">
         <v>14.53</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="17">
         <v>16</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6">
+      <c r="H23" s="17">
+        <v>14.62</v>
+      </c>
+      <c r="I23" s="19">
+        <v>42145</v>
+      </c>
+      <c r="J23" s="17">
+        <v>10.79</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6">
         <v>600399</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6">
         <v>29.36</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>29</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>31.8</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="8">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="25" customFormat="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="8">
         <v>42142</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B26" s="9">
         <v>2195</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="9">
         <v>56.6</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9">
+      <c r="E26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
         <v>63.25</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8">
-        <v>42143</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10">
-        <v>2527</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="10">
-        <v>11.63</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8">
-        <v>42143</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10">
-        <v>910</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="10">
-        <v>15.08</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="8">
         <v>42143</v>
       </c>
@@ -1329,216 +1439,212 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10">
+        <v>2527</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="10">
+        <v>11.63</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8">
         <v>42143</v>
       </c>
-      <c r="B27" s="6">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10">
+        <v>910</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="10">
+        <v>15.08</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8">
+        <v>42143</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" s="25" customFormat="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="5">
+        <v>42143</v>
+      </c>
+      <c r="B31" s="6">
         <v>300372</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="6">
         <v>44.01</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
+      <c r="E31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
         <v>48.2</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6">
+      <c r="H31" s="6"/>
+      <c r="I31" s="5">
+        <v>42145</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" s="14" customFormat="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12">
         <v>2138</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="13">
+        <v>17.95</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="13">
+        <v>17.78</v>
+      </c>
+      <c r="G32" s="13">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="H32" s="13">
+        <v>20.36</v>
+      </c>
+      <c r="I32" s="15">
+        <v>42145</v>
+      </c>
+      <c r="J32" s="13">
+        <v>250.91</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" s="18" customFormat="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16">
+        <v>600490</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="17">
+        <v>15.37</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="17">
+        <v>15.25</v>
+      </c>
+      <c r="G33" s="17">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H33" s="17">
+        <v>15.51</v>
+      </c>
+      <c r="I33" s="19">
+        <v>42145</v>
+      </c>
+      <c r="J33" s="17">
+        <v>19.28</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" s="25" customFormat="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="27">
+        <v>-180</v>
+      </c>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8">
+        <v>42144</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2363</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="6">
-        <v>17.95</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="6">
-        <v>17.78</v>
-      </c>
-      <c r="G28" s="6">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6">
-        <v>600490</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="6">
-        <v>15.37</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="6">
-        <v>15.25</v>
-      </c>
-      <c r="G29" s="6">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="8">
-        <v>42144</v>
-      </c>
-      <c r="B30" s="9">
-        <v>2363</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v>33.78</v>
+      </c>
+      <c r="G35" s="9">
         <v>37.5</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10">
-        <v>2455</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9">
-        <v>13.2</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9">
-        <v>2684</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="9">
-        <v>29.5</v>
-      </c>
-      <c r="E32" s="9">
-        <v>29.5</v>
-      </c>
-      <c r="F32" s="9">
-        <v>29.5</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10">
-        <v>2663</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="9">
-        <v>31.36</v>
-      </c>
-      <c r="E33" s="10">
-        <v>31</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10">
-        <v>34.5</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10">
-        <v>2240</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="10">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10">
-        <v>19.649999999999999</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9">
-        <v>600711</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="9">
-        <v>15.21</v>
-      </c>
-      <c r="E35" s="9">
-        <v>15</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9">
-        <v>17.5</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="8"/>
@@ -1547,131 +1653,339 @@
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="10">
-        <v>2189</v>
+        <v>2455</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="E36" s="10">
-        <v>37.5</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10">
-        <v>40.5</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8">
+        <v>42145</v>
+      </c>
       <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10">
-        <v>300363</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="10">
-        <v>53.7</v>
-      </c>
-      <c r="E37" s="10">
-        <v>53</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10">
-        <v>60</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9">
+        <v>2684</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="E37" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8">
+        <v>42145</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="5">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10">
+        <v>2663</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="9">
+        <v>31.36</v>
+      </c>
+      <c r="E38" s="10">
+        <v>31</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10">
+        <v>2240</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="10">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9">
+        <v>600711</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="9">
+        <v>15.21</v>
+      </c>
+      <c r="E40" s="9">
+        <v>15</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10">
+        <v>2189</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="E41" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="8">
         <v>42145</v>
       </c>
-      <c r="B38" s="6">
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10">
+        <v>300363</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="10">
+        <v>53.7</v>
+      </c>
+      <c r="E42" s="10">
+        <v>53</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10">
+        <v>60</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12" s="25" customFormat="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="26">
+        <v>2164</v>
+      </c>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="5">
+        <v>42145</v>
+      </c>
+      <c r="B44" s="6">
         <v>600291</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="6">
         <v>38.03</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E44" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6">
+      <c r="F44" s="6">
+        <v>38.01</v>
+      </c>
+      <c r="G44" s="6">
         <v>42.33</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6">
         <v>2538</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="6">
         <v>14.24</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E45" s="6">
         <v>14</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6">
+      <c r="F45" s="6">
+        <v>14.87</v>
+      </c>
+      <c r="G45" s="6">
         <v>16.2</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6">
         <v>300326</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6">
         <v>67.900000000000006</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E46" s="6">
         <v>67</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6">
         <v>85</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6">
+        <v>600633</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="6">
+        <v>27.15</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <v>27.19</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6">
+        <v>2330</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="6">
+        <v>16.96</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <v>16.98</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6">
+        <v>300321</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="6">
+        <v>88.98</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卖出价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,7 +259,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>哈空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.50-13.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中纺投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西金叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风范投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山推股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上风高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东重机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.88建议出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.5/38.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1800+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79000    83417.45    956.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -413,13 +461,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,8 +586,29 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,11 +905,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -811,8 +917,8 @@
     <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.875" style="1"/>
     <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="1"/>
     <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -851,22 +957,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -898,10 +1004,10 @@
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
+      <c r="F4" s="6">
         <v>18.5</v>
       </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6">
         <v>6</v>
@@ -922,10 +1028,10 @@
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="F5" s="6">
         <v>16.05</v>
       </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
         <v>6</v>
@@ -948,10 +1054,10 @@
       <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10">
+      <c r="F6" s="10">
         <v>22</v>
       </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10">
         <v>4</v>
@@ -972,10 +1078,10 @@
       <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="F7" s="10">
         <v>22.5</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10">
         <v>4</v>
@@ -998,10 +1104,10 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="F8" s="6">
         <v>23.5</v>
       </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
         <v>2</v>
@@ -1022,10 +1128,10 @@
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="6">
         <v>34.299999999999997</v>
       </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6">
         <v>2</v>
@@ -1048,10 +1154,10 @@
       <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9">
+      <c r="F10" s="9">
         <v>43.5</v>
       </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10">
         <v>2</v>
@@ -1072,10 +1178,10 @@
       <c r="E11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
         <v>34.799999999999997</v>
       </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10">
         <v>2</v>
@@ -1098,10 +1204,10 @@
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="F12" s="6">
         <v>60</v>
       </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6">
         <v>3</v>
@@ -1122,10 +1228,10 @@
       <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="F13" s="6">
         <v>21.35</v>
       </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1146,10 +1252,10 @@
       <c r="E14" s="9">
         <v>27</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
+      <c r="F14" s="9">
         <v>32.5</v>
       </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10">
         <v>3</v>
@@ -1170,10 +1276,10 @@
       <c r="E15" s="10">
         <v>20</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
+      <c r="F15" s="10">
         <v>22.5</v>
       </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
         <v>19</v>
@@ -1194,10 +1300,10 @@
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6">
+      <c r="F16" s="6">
         <v>18.2</v>
       </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
         <v>19</v>
@@ -1216,10 +1322,10 @@
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6">
+      <c r="F17" s="6">
         <v>28</v>
       </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
         <v>2</v>
@@ -1242,10 +1348,10 @@
       <c r="E18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+      <c r="F18" s="9">
         <v>28.1</v>
       </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
@@ -1262,10 +1368,10 @@
       <c r="E19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
+      <c r="F19" s="10">
         <v>16.5</v>
       </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
@@ -1282,10 +1388,10 @@
       <c r="E20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
+      <c r="F20" s="10">
         <v>20</v>
       </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
@@ -1314,7 +1420,7 @@
         <v>600703</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="22">
         <v>24.3</v>
@@ -1323,10 +1429,10 @@
         <v>24</v>
       </c>
       <c r="F22" s="22">
+        <v>26.2</v>
+      </c>
+      <c r="G22" s="22">
         <v>23.98</v>
-      </c>
-      <c r="G22" s="22">
-        <v>26.2</v>
       </c>
       <c r="H22" s="22">
         <v>25.98</v>
@@ -1346,19 +1452,19 @@
         <v>600188</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="17">
         <v>14.98</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="17">
+        <v>16</v>
+      </c>
+      <c r="G23" s="17">
         <v>14.53</v>
-      </c>
-      <c r="G23" s="17">
-        <v>16</v>
       </c>
       <c r="H23" s="17">
         <v>14.62</v>
@@ -1386,12 +1492,14 @@
       <c r="E24" s="6">
         <v>29</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
+      <c r="F24" s="6">
         <v>31.8</v>
       </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="5">
+        <v>42146</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1426,10 +1534,10 @@
       <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9">
+      <c r="F26" s="9">
         <v>63.25</v>
       </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="8">
         <v>42143</v>
@@ -1452,10 +1560,10 @@
       <c r="E27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10">
+      <c r="F27" s="10">
         <v>12.8</v>
       </c>
+      <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="8">
         <v>42143</v>
@@ -1478,10 +1586,10 @@
       <c r="E28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10">
+      <c r="F28" s="10">
         <v>16.5</v>
       </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="8">
         <v>42143</v>
@@ -1505,20 +1613,20 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" s="25" customFormat="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="24"/>
+      <c r="A30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="5">
@@ -1528,18 +1636,18 @@
         <v>300372</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="6">
         <v>44.01</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6">
+        <v>33</v>
+      </c>
+      <c r="F31" s="6">
         <v>48.2</v>
       </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="5">
         <v>42145</v>
@@ -1554,19 +1662,19 @@
         <v>2138</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="13">
         <v>17.95</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="13">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="G32" s="13">
         <v>17.78</v>
-      </c>
-      <c r="G32" s="13">
-        <v>19.579999999999998</v>
       </c>
       <c r="H32" s="13">
         <v>20.36</v>
@@ -1586,19 +1694,19 @@
         <v>600490</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17">
         <v>15.37</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="17">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G33" s="17">
         <v>15.25</v>
-      </c>
-      <c r="G33" s="17">
-        <v>17.399999999999999</v>
       </c>
       <c r="H33" s="17">
         <v>15.51</v>
@@ -1613,20 +1721,20 @@
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" s="25" customFormat="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="27">
+      <c r="A34" s="30">
         <v>-180</v>
       </c>
-      <c r="L34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8">
@@ -1636,15 +1744,15 @@
         <v>2363</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9">
+      <c r="F35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="9">
         <v>33.78</v>
-      </c>
-      <c r="G35" s="9">
-        <v>37.5</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="8"/>
@@ -1658,21 +1766,21 @@
         <v>2455</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9">
+      <c r="F36" s="9">
         <v>13.2</v>
       </c>
+      <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="8">
         <v>42145</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L36" s="10"/>
     </row>
@@ -1682,7 +1790,7 @@
         <v>2684</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="9">
         <v>29.5</v>
@@ -1690,10 +1798,10 @@
       <c r="E37" s="9">
         <v>29.5</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="F37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="8">
         <v>42145</v>
@@ -1708,7 +1816,7 @@
         <v>2663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="9">
         <v>31.36</v>
@@ -1716,12 +1824,14 @@
       <c r="E38" s="10">
         <v>31</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10">
+      <c r="F38" s="10">
         <v>34.5</v>
       </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="8">
+        <v>42145</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="10"/>
@@ -1732,18 +1842,18 @@
         <v>2240</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="10">
         <v>17.440000000000001</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10">
+        <v>42</v>
+      </c>
+      <c r="F39" s="10">
         <v>19.649999999999999</v>
       </c>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="8"/>
       <c r="J39" s="11"/>
@@ -1756,7 +1866,7 @@
         <v>600711</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="9">
         <v>15.21</v>
@@ -1764,10 +1874,10 @@
       <c r="E40" s="9">
         <v>15</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9">
+      <c r="F40" s="9">
         <v>17.5</v>
       </c>
+      <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11"/>
@@ -1780,7 +1890,7 @@
         <v>2189</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="9">
         <v>37.9</v>
@@ -1788,10 +1898,10 @@
       <c r="E41" s="10">
         <v>37.5</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10">
+      <c r="F41" s="10">
         <v>40.5</v>
       </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="8">
         <v>42145</v>
@@ -1806,7 +1916,7 @@
         <v>300363</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="10">
         <v>53.7</v>
@@ -1814,10 +1924,10 @@
       <c r="E42" s="10">
         <v>53</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10">
+      <c r="F42" s="10">
         <v>60</v>
       </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="8"/>
       <c r="J42" s="11"/>
@@ -1825,20 +1935,20 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" s="25" customFormat="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="26">
+      <c r="A43" s="27">
         <v>2164</v>
       </c>
-      <c r="L43" s="24"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="5">
@@ -1848,7 +1958,7 @@
         <v>600291</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="6">
         <v>38.03</v>
@@ -1857,10 +1967,10 @@
         <v>37.799999999999997</v>
       </c>
       <c r="F44" s="6">
+        <v>42.33</v>
+      </c>
+      <c r="G44" s="6">
         <v>38.01</v>
-      </c>
-      <c r="G44" s="6">
-        <v>42.33</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -1874,7 +1984,7 @@
         <v>2538</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="6">
         <v>14.24</v>
@@ -1883,10 +1993,10 @@
         <v>14</v>
       </c>
       <c r="F45" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="G45" s="6">
         <v>14.87</v>
-      </c>
-      <c r="G45" s="6">
-        <v>16.2</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -1900,7 +2010,7 @@
         <v>300326</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="6">
         <v>67.900000000000006</v>
@@ -1908,10 +2018,10 @@
       <c r="E46" s="6">
         <v>67</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6">
+      <c r="F46" s="6">
         <v>85</v>
       </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -1924,16 +2034,18 @@
         <v>600633</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="6">
         <v>27.15</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6">
+        <v>30</v>
+      </c>
+      <c r="G47" s="6">
         <v>27.19</v>
       </c>
-      <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -1946,16 +2058,18 @@
         <v>2330</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="6">
         <v>16.96</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="G48" s="6">
         <v>16.98</v>
       </c>
-      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -1968,21 +2082,253 @@
         <v>300321</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="6">
         <v>88.98</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6">
+        <v>100</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="I49" s="5">
+        <v>42146</v>
+      </c>
       <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="L49" s="6"/>
     </row>
+    <row r="50" spans="1:12" s="25" customFormat="1">
+      <c r="A50" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="34"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="8">
+        <v>42146</v>
+      </c>
+      <c r="B51" s="9">
+        <v>600202</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="9">
+        <v>13.89</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="8"/>
+      <c r="B52" s="10">
+        <v>600061</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="9">
+        <v>30.45</v>
+      </c>
+      <c r="E52" s="9">
+        <v>30.3</v>
+      </c>
+      <c r="F52" s="9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G52" s="9">
+        <v>30.95</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9">
+        <v>812</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="9">
+        <v>14.23</v>
+      </c>
+      <c r="E53" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="F53" s="9">
+        <v>16</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10">
+        <v>601700</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="9">
+        <v>15.21</v>
+      </c>
+      <c r="E54" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="F54" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10">
+        <v>987</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="10">
+        <v>35.39</v>
+      </c>
+      <c r="E55" s="10">
+        <v>35</v>
+      </c>
+      <c r="F55" s="10">
+        <v>39</v>
+      </c>
+      <c r="G55" s="10">
+        <v>35.92</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9">
+        <v>680</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="9">
+        <v>10.42</v>
+      </c>
+      <c r="E56" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="F56" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="G56" s="9">
+        <v>10.41</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10">
+        <v>967</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="9">
+        <v>28</v>
+      </c>
+      <c r="E57" s="10">
+        <v>28</v>
+      </c>
+      <c r="F57" s="10">
+        <v>35</v>
+      </c>
+      <c r="G57" s="10">
+        <v>28.48</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10">
+        <v>2685</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="10">
+        <v>17.88</v>
+      </c>
+      <c r="E58" s="10">
+        <v>17.88</v>
+      </c>
+      <c r="F58" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="G58" s="10">
+        <v>19.04</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A50:L50"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="19575" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2015年5月" sheetId="1" r:id="rId1"/>
+    <sheet name="汇总" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注(盈亏)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哈空调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风范投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州友谊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,7 +304,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>79000    83417.45    956.00</t>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风范股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,20 +433,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -461,50 +457,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,38 +536,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,11 +852,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:L50"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -966,13 +913,13 @@
         <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -1012,9 +959,7 @@
       <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="7">
-        <v>0.19800000000000001</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
@@ -1036,9 +981,7 @@
       <c r="I5" s="6">
         <v>6</v>
       </c>
-      <c r="J5" s="7">
-        <v>0.17799999999999999</v>
-      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="6"/>
     </row>
@@ -1062,9 +1005,7 @@
       <c r="I6" s="10">
         <v>4</v>
       </c>
-      <c r="J6" s="11">
-        <v>0.106</v>
-      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
@@ -1086,9 +1027,7 @@
       <c r="I7" s="10">
         <v>4</v>
       </c>
-      <c r="J7" s="11">
-        <v>0.20899999999999999</v>
-      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="10"/>
     </row>
@@ -1112,9 +1051,7 @@
       <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="7">
-        <v>0.107</v>
-      </c>
+      <c r="J8" s="7"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
@@ -1136,9 +1073,7 @@
       <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="7">
-        <v>0.106</v>
-      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="6"/>
     </row>
@@ -1162,9 +1097,7 @@
       <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="11">
-        <v>0.19800000000000001</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
@@ -1186,9 +1119,7 @@
       <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="11">
-        <v>0.16700000000000001</v>
-      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="10"/>
     </row>
@@ -1212,9 +1143,7 @@
       <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="7">
-        <v>0.23899999999999999</v>
-      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
@@ -1260,9 +1189,7 @@
       <c r="I14" s="10">
         <v>3</v>
       </c>
-      <c r="J14" s="11">
-        <v>0.21299999999999999</v>
-      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
@@ -1330,9 +1257,7 @@
       <c r="I17" s="6">
         <v>2</v>
       </c>
-      <c r="J17" s="7">
-        <v>0.12</v>
-      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="6"/>
     </row>
@@ -1398,147 +1323,171 @@
       <c r="K20" s="11"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" s="25" customFormat="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" s="23" customFormat="1">
-      <c r="A22" s="20">
+    <row r="21" spans="1:12" s="23" customFormat="1">
+      <c r="A21" s="20">
         <v>42139</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B21" s="21">
         <v>600703</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D21" s="22">
         <v>24.3</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E21" s="22">
         <v>24</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F21" s="22">
         <v>26.2</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G21" s="22">
         <v>23.98</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H21" s="22">
         <v>25.98</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I21" s="15">
         <v>42145</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J21" s="22">
         <v>390.51</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" s="18" customFormat="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16">
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16">
         <v>600188</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D22" s="17">
         <v>14.98</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F22" s="17">
         <v>16</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G22" s="17">
         <v>14.53</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H22" s="17">
         <v>14.62</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I22" s="19">
         <v>42145</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J22" s="17">
         <v>10.79</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
+        <v>600399</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6">
+        <v>29.36</v>
+      </c>
+      <c r="E23" s="6">
+        <v>29</v>
+      </c>
+      <c r="F23" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5">
+        <v>42146</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6">
-        <v>600399</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6">
-        <v>29.36</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="A24" s="8">
+        <v>42142</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2195</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9">
+        <v>56.6</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="9">
+        <v>63.25</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8">
+        <v>42143</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10">
+        <v>2527</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="10">
+        <v>11.63</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8">
+        <v>42143</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10">
+        <v>910</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="10">
+        <v>15.08</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="6">
-        <v>31.8</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5">
-        <v>42146</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" s="25" customFormat="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="8">
-        <v>42142</v>
-      </c>
-      <c r="B26" s="9">
-        <v>2195</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="9">
-        <v>56.6</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="9">
-        <v>63.25</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="8">
         <v>42143</v>
       </c>
@@ -1547,213 +1496,239 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10">
-        <v>2527</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="10">
-        <v>11.63</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8">
+      <c r="A27" s="5">
         <v>42143</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10">
-        <v>910</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="10">
-        <v>15.08</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8">
-        <v>42143</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" s="25" customFormat="1">
-      <c r="A30" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
+      <c r="B27" s="6">
+        <v>300372</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44.01</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6">
+        <v>48.2</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5">
+        <v>42145</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" s="14" customFormat="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12">
+        <v>2138</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="13">
+        <v>17.95</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="13">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="G28" s="13">
+        <v>17.78</v>
+      </c>
+      <c r="H28" s="13">
+        <v>20.36</v>
+      </c>
+      <c r="I28" s="15">
+        <v>42145</v>
+      </c>
+      <c r="J28" s="13">
+        <v>250.91</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16">
+        <v>600490</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="17">
+        <v>15.37</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="17">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G29" s="17">
+        <v>15.25</v>
+      </c>
+      <c r="H29" s="17">
+        <v>15.51</v>
+      </c>
+      <c r="I29" s="19">
+        <v>42145</v>
+      </c>
+      <c r="J29" s="17">
+        <v>19.28</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="8">
+        <v>42144</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2363</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="9">
+        <v>33.78</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="5">
-        <v>42143</v>
-      </c>
-      <c r="B31" s="6">
-        <v>300372</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="6">
-        <v>44.01</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="6">
-        <v>48.2</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10">
+        <v>2455</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8">
         <v>42145</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" s="14" customFormat="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12">
-        <v>2138</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="13">
-        <v>17.95</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="13">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="G32" s="13">
-        <v>17.78</v>
-      </c>
-      <c r="H32" s="13">
-        <v>20.36</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9">
+        <v>2684</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="E32" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8">
         <v>42145</v>
       </c>
-      <c r="J32" s="13">
-        <v>250.91</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" s="18" customFormat="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16">
-        <v>600490</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="17">
-        <v>15.37</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="17">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G33" s="17">
-        <v>15.25</v>
-      </c>
-      <c r="H33" s="17">
-        <v>15.51</v>
-      </c>
-      <c r="I33" s="19">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10">
+        <v>2663</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="9">
+        <v>31.36</v>
+      </c>
+      <c r="E33" s="10">
+        <v>31</v>
+      </c>
+      <c r="F33" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8">
         <v>42145</v>
       </c>
-      <c r="J33" s="17">
-        <v>19.28</v>
-      </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" s="25" customFormat="1">
-      <c r="A34" s="30">
-        <v>-180</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10">
+        <v>2240</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="10">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="10">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="8">
-        <v>42144</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="9">
-        <v>2363</v>
+        <v>600711</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="9">
-        <v>33.78</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D35" s="9">
+        <v>15.21</v>
+      </c>
+      <c r="E35" s="9">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11"/>
@@ -1761,574 +1736,420 @@
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="8"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="10">
-        <v>2455</v>
+        <v>2189</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9">
-        <v>13.2</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="D36" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="E36" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="F36" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="8">
         <v>42145</v>
       </c>
       <c r="J36" s="11"/>
-      <c r="K36" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="K36" s="11"/>
       <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9">
-        <v>2684</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="9">
-        <v>29.5</v>
-      </c>
-      <c r="E37" s="9">
-        <v>29.5</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="8">
-        <v>42145</v>
-      </c>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10">
+        <v>300363</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="10">
+        <v>53.7</v>
+      </c>
+      <c r="E37" s="10">
+        <v>53</v>
+      </c>
+      <c r="F37" s="10">
+        <v>60</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10">
-        <v>2663</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="9">
-        <v>31.36</v>
-      </c>
-      <c r="E38" s="10">
-        <v>31</v>
-      </c>
-      <c r="F38" s="10">
-        <v>34.5</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8">
+      <c r="A38" s="5">
         <v>42145</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="10"/>
+      <c r="B38" s="6">
+        <v>600291</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="6">
+        <v>38.03</v>
+      </c>
+      <c r="E38" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F38" s="6">
+        <v>42.33</v>
+      </c>
+      <c r="G38" s="6">
+        <v>38.01</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10">
-        <v>2240</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="10">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="10">
-        <v>19.649999999999999</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6">
+        <v>2538</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="6">
+        <v>14.24</v>
+      </c>
+      <c r="E39" s="6">
+        <v>14</v>
+      </c>
+      <c r="F39" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>14.87</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9">
-        <v>600711</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6">
+        <v>300326</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="6">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E40" s="6">
+        <v>67</v>
+      </c>
+      <c r="F40" s="6">
+        <v>85</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6">
+        <v>600633</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="6">
+        <v>27.15</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
+        <v>30</v>
+      </c>
+      <c r="G41" s="6">
+        <v>27.19</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6">
+        <v>2330</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6">
+        <v>16.96</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="G42" s="6">
+        <v>16.98</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6">
+        <v>300321</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="6">
+        <v>88.98</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
+        <v>100</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="5">
+        <v>42146</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="8">
+        <v>42146</v>
+      </c>
+      <c r="B44" s="9">
+        <v>600202</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="9">
+        <v>13.89</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8">
+        <v>42149</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" s="29" customFormat="1">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25">
+        <v>600061</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="26">
+        <v>30.45</v>
+      </c>
+      <c r="E45" s="26">
+        <v>30.3</v>
+      </c>
+      <c r="F45" s="26">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G45" s="26">
+        <v>30.95</v>
+      </c>
+      <c r="H45" s="26">
+        <v>34.01</v>
+      </c>
+      <c r="I45" s="27">
+        <v>42149</v>
+      </c>
+      <c r="J45" s="26">
+        <v>600.91</v>
+      </c>
+      <c r="K45" s="28"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9">
+        <v>812</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="9">
+        <v>14.23</v>
+      </c>
+      <c r="E46" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="F46" s="9">
+        <v>16</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10">
+        <v>601700</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="9">
         <v>15.21</v>
       </c>
-      <c r="E40" s="9">
-        <v>15</v>
-      </c>
-      <c r="F40" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10">
-        <v>2189</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="E41" s="10">
-        <v>37.5</v>
-      </c>
-      <c r="F41" s="10">
-        <v>40.5</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="8">
-        <v>42145</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10">
-        <v>300363</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="10">
-        <v>53.7</v>
-      </c>
-      <c r="E42" s="10">
-        <v>53</v>
-      </c>
-      <c r="F42" s="10">
-        <v>60</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:12" s="25" customFormat="1">
-      <c r="A43" s="27">
-        <v>2164</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="5">
-        <v>42145</v>
-      </c>
-      <c r="B44" s="6">
-        <v>600291</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="6">
-        <v>38.03</v>
-      </c>
-      <c r="E44" s="6">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="F44" s="6">
-        <v>42.33</v>
-      </c>
-      <c r="G44" s="6">
-        <v>38.01</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6">
-        <v>2538</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="6">
-        <v>14.24</v>
-      </c>
-      <c r="E45" s="6">
-        <v>14</v>
-      </c>
-      <c r="F45" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="G45" s="6">
-        <v>14.87</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6">
-        <v>300326</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="6">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="E46" s="6">
-        <v>67</v>
-      </c>
-      <c r="F46" s="6">
-        <v>85</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6">
-        <v>600633</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="6">
-        <v>27.15</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <v>30</v>
-      </c>
-      <c r="G47" s="6">
-        <v>27.19</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="E47" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="F47" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6">
-        <v>2330</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="6">
-        <v>16.96</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="G48" s="6">
-        <v>16.98</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10">
+        <v>987</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="10">
+        <v>35.39</v>
+      </c>
+      <c r="E48" s="10">
+        <v>35</v>
+      </c>
+      <c r="F48" s="10">
+        <v>39</v>
+      </c>
+      <c r="G48" s="10">
+        <v>35.92</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6">
-        <v>300321</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="6">
-        <v>88.98</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6">
-        <v>100</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="5">
-        <v>42146</v>
-      </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="1:12" s="25" customFormat="1">
-      <c r="A50" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="34"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9">
+        <v>680</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="9">
+        <v>10.42</v>
+      </c>
+      <c r="E49" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="F49" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="G49" s="9">
+        <v>10.41</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10">
+        <v>967</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="9">
+        <v>28</v>
+      </c>
+      <c r="E50" s="10">
+        <v>28</v>
+      </c>
+      <c r="F50" s="10">
+        <v>35</v>
+      </c>
+      <c r="G50" s="10">
+        <v>28.48</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="8">
-        <v>42146</v>
-      </c>
-      <c r="B51" s="9">
-        <v>600202</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="9">
-        <v>13.89</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="9">
-        <v>15.4</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10">
+        <v>2685</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="10">
+        <v>17.88</v>
+      </c>
+      <c r="E51" s="10">
+        <v>17.88</v>
+      </c>
+      <c r="F51" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="G51" s="10">
+        <v>19.04</v>
+      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="8"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="8"/>
-      <c r="B52" s="10">
-        <v>600061</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="9">
-        <v>30.45</v>
-      </c>
-      <c r="E52" s="9">
-        <v>30.3</v>
-      </c>
-      <c r="F52" s="9">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G52" s="9">
-        <v>30.95</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9">
-        <v>812</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="9">
-        <v>14.23</v>
-      </c>
-      <c r="E53" s="9">
-        <v>14.1</v>
-      </c>
-      <c r="F53" s="9">
-        <v>16</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10">
-        <v>601700</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="9">
-        <v>15.21</v>
-      </c>
-      <c r="E54" s="10">
-        <v>14.9</v>
-      </c>
-      <c r="F54" s="10">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10">
-        <v>987</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="10">
-        <v>35.39</v>
-      </c>
-      <c r="E55" s="10">
-        <v>35</v>
-      </c>
-      <c r="F55" s="10">
-        <v>39</v>
-      </c>
-      <c r="G55" s="10">
-        <v>35.92</v>
-      </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="10"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9">
-        <v>680</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="9">
-        <v>10.42</v>
-      </c>
-      <c r="E56" s="9">
-        <v>10.3</v>
-      </c>
-      <c r="F56" s="9">
-        <v>12.2</v>
-      </c>
-      <c r="G56" s="9">
-        <v>10.41</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="10"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10">
-        <v>967</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="9">
-        <v>28</v>
-      </c>
-      <c r="E57" s="10">
-        <v>28</v>
-      </c>
-      <c r="F57" s="10">
-        <v>35</v>
-      </c>
-      <c r="G57" s="10">
-        <v>28.48</v>
-      </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="10"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10">
-        <v>2685</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="10">
-        <v>17.88</v>
-      </c>
-      <c r="E58" s="10">
-        <v>17.88</v>
-      </c>
-      <c r="F58" s="10">
-        <v>22.5</v>
-      </c>
-      <c r="G58" s="10">
-        <v>19.04</v>
-      </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A50:L50"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2342,20 +2163,328 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1"/>
+  <sheetPr published="0"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5">
+        <v>42143</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8">
+        <v>42144</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="30">
+        <v>-180</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5">
+        <v>42145</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12">
+        <v>2164</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8">
+        <v>42146</v>
+      </c>
+      <c r="B7" s="9">
+        <v>79000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>83417.45</v>
+      </c>
+      <c r="D7" s="25">
+        <v>956</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5">
+        <v>42149</v>
+      </c>
+      <c r="B8" s="6">
+        <v>79000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>85354.65</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1954</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="29" customFormat="1">
+      <c r="A9" s="8">
+        <v>42150</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5">
+        <v>42151</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8">
+        <v>42152</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5">
+        <v>42153</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2376,4 +2505,23 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,114 +212,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>凯利泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺络电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.60-17.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兖州煤业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.70-14.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三安光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.61建议出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙报传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同大股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.50-13.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中纺投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西金叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山推股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上风高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东重机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.88建议出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.5/38.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风范股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>司尔特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯利泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺络电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.60-17.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兖州煤业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.70-14.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三安光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.61建议出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙报传媒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得利斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同大股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.50-13.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中纺投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西金叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州友谊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山推股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上风高科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华东重机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收割日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91.88建议出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.5/38.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈亏</t>
-  </si>
-  <si>
-    <t>投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风范股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,8 +851,8 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -913,13 +909,13 @@
         <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -1331,7 +1327,7 @@
         <v>600703</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="22">
         <v>24.3</v>
@@ -1363,13 +1359,13 @@
         <v>600188</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="17">
         <v>14.98</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="17">
         <v>16</v>
@@ -1529,13 +1525,13 @@
         <v>2138</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="13">
         <v>17.95</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="13">
         <v>19.579999999999998</v>
@@ -1587,29 +1583,35 @@
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="8">
+    <row r="30" spans="1:12" s="14" customFormat="1">
+      <c r="A30" s="24">
         <v>42144</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="25">
         <v>2363</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="26">
         <v>33.78</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="10"/>
+      <c r="H30" s="26">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="I30" s="27">
+        <v>42150</v>
+      </c>
+      <c r="J30" s="26">
+        <v>940.24</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8"/>
@@ -1631,7 +1633,7 @@
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L31" s="10"/>
     </row>
@@ -1730,7 +1732,9 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="8">
+        <v>42150</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="10"/>
@@ -1813,31 +1817,37 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6">
+    <row r="39" spans="1:12" s="14" customFormat="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12">
         <v>2538</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="13">
         <v>14.24</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="13">
         <v>14</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="13">
         <v>16.2</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="13">
         <v>14.87</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="H39" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="I39" s="15">
+        <v>42150</v>
+      </c>
+      <c r="J39" s="13">
+        <v>258.70999999999998</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="6"/>
@@ -1845,7 +1855,7 @@
         <v>300326</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="6">
         <v>67.900000000000006</v>
@@ -1869,7 +1879,7 @@
         <v>600633</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="6">
         <v>27.15</v>
@@ -1893,7 +1903,7 @@
         <v>2330</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="6">
         <v>16.96</v>
@@ -1917,7 +1927,7 @@
         <v>300321</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="6">
         <v>88.98</v>
@@ -1933,7 +1943,7 @@
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L43" s="6"/>
     </row>
@@ -1945,13 +1955,13 @@
         <v>600202</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="9">
         <v>13.89</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" s="9">
         <v>15.4</v>
@@ -1971,7 +1981,7 @@
         <v>600061</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="26">
         <v>30.45</v>
@@ -2003,7 +2013,7 @@
         <v>812</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="9">
         <v>14.23</v>
@@ -2027,7 +2037,7 @@
         <v>601700</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" s="9">
         <v>15.21</v>
@@ -2051,7 +2061,7 @@
         <v>987</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="10">
         <v>35.39</v>
@@ -2077,7 +2087,7 @@
         <v>680</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="9">
         <v>10.42</v>
@@ -2103,7 +2113,7 @@
         <v>967</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="9">
         <v>28</v>
@@ -2129,7 +2139,7 @@
         <v>2685</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="10">
         <v>17.88</v>
@@ -2168,7 +2178,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2204,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2241,8 +2251,8 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="12" t="s">
-        <v>69</v>
+      <c r="D4" s="12">
+        <v>1800</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2297,7 +2307,7 @@
         <v>79000</v>
       </c>
       <c r="C7" s="9">
-        <v>83417.45</v>
+        <v>83417</v>
       </c>
       <c r="D7" s="25">
         <v>956</v>
@@ -2319,7 +2329,7 @@
         <v>79000</v>
       </c>
       <c r="C8" s="6">
-        <v>85354.65</v>
+        <v>85354</v>
       </c>
       <c r="D8" s="12">
         <v>1954</v>
@@ -2337,9 +2347,15 @@
       <c r="A9" s="8">
         <v>42150</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="9">
+        <v>79000</v>
+      </c>
+      <c r="C9" s="9">
+        <v>88275</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2942</v>
+      </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -366,6 +366,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -532,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +660,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,11 +969,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0"/>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2497,60 +2512,88 @@
       <c r="L59" s="30"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="32"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="34"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2562,16 +2605,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0"/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2589,7 +2632,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2611,7 +2654,7 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2625,11 +2668,11 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4">
+      <c r="A4" s="44">
         <v>42143</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="7">
         <v>1800</v>
       </c>
@@ -2643,11 +2686,11 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="37">
+      <c r="A5" s="45">
         <v>42144</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="39">
         <v>-180</v>
       </c>
@@ -2661,11 +2704,11 @@
       <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4">
+      <c r="A6" s="44">
         <v>42145</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="7">
         <v>2164</v>
       </c>
@@ -2679,13 +2722,13 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="37">
+      <c r="A7" s="45">
         <v>42146</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="29">
         <v>79000</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="29">
         <v>83417</v>
       </c>
       <c r="D7" s="17">
@@ -2701,13 +2744,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="A8" s="44">
         <v>42149</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="21">
         <v>79000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="21">
         <v>85354</v>
       </c>
       <c r="D8" s="7">
@@ -2723,13 +2766,13 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="37">
+      <c r="A9" s="45">
         <v>42150</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="29">
         <v>79000</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="29">
         <v>88275</v>
       </c>
       <c r="D9" s="18">
@@ -2745,13 +2788,13 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4">
+      <c r="A10" s="44">
         <v>42151</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="21">
         <v>129000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="21">
         <v>137330</v>
       </c>
       <c r="D10" s="10">
@@ -2767,13 +2810,13 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="37">
+      <c r="A11" s="45">
         <v>42152</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="29">
         <v>139000</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="29">
         <v>136574</v>
       </c>
       <c r="D11" s="39">
@@ -2789,12 +2832,18 @@
       <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="44">
         <v>42153</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="21">
+        <v>139000</v>
+      </c>
+      <c r="C12" s="21">
+        <v>134930</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-1625</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2805,9 +2854,11 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="45">
+        <v>42156</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -2819,24 +2870,28 @@
       <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="A14" s="44">
+        <v>42157</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="45">
+        <v>42158</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
@@ -2847,24 +2902,28 @@
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
+      <c r="A16" s="44">
+        <v>42159</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="45">
+        <v>42160</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
@@ -2875,22 +2934,93 @@
       <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="45"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="44"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="45"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="44"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="45"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19575" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19575" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="2015年5月" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>三安光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.61建议出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同大股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.50-13.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中纺投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西金叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上风高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.88建议出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.5/38.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风范股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北纬通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准油股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐视网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东重机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色光标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯利泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.5建议出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天成控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫金刚石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华信国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一重工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠江控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银泰资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山推股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万邦达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚天高速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华锐风电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博腾股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚太科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国中铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武钢股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中铁二局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二六三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞茂通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>兖州煤业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,11 +410,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三安光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.61建议出</t>
+    <t>新疆城建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国中冶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.18/62.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国铝业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛洲坝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,186 +438,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得利斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同大股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.50-13.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中纺投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西金叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上风高科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收割日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91.88建议出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.5/38.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈亏</t>
-  </si>
-  <si>
-    <t>投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风范股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司尔特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北纬通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准油股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐视网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华东重机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色光标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二六三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞茂通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈高科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大智慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯利泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83.5建议出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天成控股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豫金刚石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华信国际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三一重工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠江控股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银泰资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州友谊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山推股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二三四五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万邦达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楚天高速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华锐风电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博腾股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚太科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方大特钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南航空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国中铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武钢股份</t>
+    <t>荣安地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,22 +508,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -579,122 +587,113 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,13 +708,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,109 +1017,109 @@
   <sheetPr published="0"/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="18"/>
-    <col min="5" max="6" width="12.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="18"/>
-    <col min="9" max="9" width="10.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="18"/>
-    <col min="12" max="12" width="12.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="16"/>
+    <col min="5" max="6" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="16"/>
+    <col min="9" max="9" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="16"/>
+    <col min="12" max="12" width="12.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>67</v>
+      <c r="K1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>42129</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>300264</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>18.5</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17">
         <v>6</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17">
         <v>600192</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>16.05</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -1139,7 +1141,7 @@
       <c r="I4" s="3">
         <v>4</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
     </row>
@@ -1161,7 +1163,7 @@
       <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1185,7 +1187,7 @@
       <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
     </row>
@@ -1207,7 +1209,7 @@
       <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1231,7 +1233,7 @@
       <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
     </row>
@@ -1253,7 +1255,7 @@
       <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1277,7 +1279,7 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="4"/>
       <c r="L10" s="3"/>
     </row>
@@ -1299,7 +1301,7 @@
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1323,7 +1325,7 @@
       <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3"/>
     </row>
@@ -1345,7 +1347,7 @@
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1369,7 +1371,7 @@
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3"/>
     </row>
@@ -1391,7 +1393,7 @@
       <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="32"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1413,7 +1415,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="32"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -1433,7 +1435,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
@@ -1453,11 +1455,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="32"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" s="23" customFormat="1">
+    <row r="19" spans="1:12" s="21" customFormat="1">
       <c r="A19" s="6">
         <v>42139</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>600703</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8">
         <v>24.3</v>
@@ -1485,69 +1487,69 @@
       <c r="I19" s="9">
         <v>42145</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="30">
         <v>390.51</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24">
+    <row r="20" spans="1:12" s="21" customFormat="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7">
         <v>600188</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="8">
         <v>14.98</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="E20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="8">
         <v>16</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="8">
         <v>14.53</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="8">
         <v>14.62</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <v>42145</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="30">
         <v>10.79</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17">
         <v>600399</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>29.36</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>29</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>31.8</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19">
         <v>42146</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
@@ -1573,7 +1575,7 @@
       <c r="I22" s="5">
         <v>42143</v>
       </c>
-      <c r="J22" s="32"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
@@ -1599,7 +1601,7 @@
       <c r="I23" s="5">
         <v>42143</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
@@ -1625,37 +1627,37 @@
       <c r="I24" s="5">
         <v>42143</v>
       </c>
-      <c r="J24" s="32"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" s="28" customFormat="1">
-      <c r="A25" s="30">
+    <row r="25" spans="1:12" s="26" customFormat="1">
+      <c r="A25" s="28">
         <v>42143</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="23">
         <v>300372</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <v>44.01</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <v>48.2</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25">
         <v>42145</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7"/>
@@ -1683,43 +1685,43 @@
       <c r="I26" s="9">
         <v>42145</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="30">
         <v>250.91</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24">
+    <row r="27" spans="1:12" s="21" customFormat="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7">
         <v>600490</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>15.37</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <v>17.399999999999999</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="8">
         <v>15.25</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="8">
         <v>15.51</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <v>42145</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="30">
         <v>19.28</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6">
@@ -1734,7 +1736,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G28" s="8">
         <v>33.78</v>
@@ -1745,7 +1747,7 @@
       <c r="I28" s="9">
         <v>42150</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="30">
         <v>940.24</v>
       </c>
       <c r="K28" s="8"/>
@@ -1769,10 +1771,10 @@
       <c r="I29" s="5">
         <v>42145</v>
       </c>
-      <c r="J29" s="32"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1797,7 +1799,7 @@
       <c r="I30" s="5">
         <v>42145</v>
       </c>
-      <c r="J30" s="32"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
@@ -1823,7 +1825,7 @@
       <c r="I31" s="5">
         <v>42145</v>
       </c>
-      <c r="J31" s="32"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
@@ -1849,7 +1851,7 @@
       <c r="I32" s="5">
         <v>42151</v>
       </c>
-      <c r="J32" s="32"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="4"/>
       <c r="L32" s="3">
         <v>21.31</v>
@@ -1877,7 +1879,7 @@
       <c r="I33" s="5">
         <v>42150</v>
       </c>
-      <c r="J33" s="32"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
@@ -1903,65 +1905,65 @@
       <c r="I34" s="5">
         <v>42145</v>
       </c>
-      <c r="J34" s="32"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" s="28" customFormat="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26">
+    <row r="35" spans="1:12" s="26" customFormat="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24">
         <v>300363</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="26">
+      <c r="C35" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="24">
         <v>53.7</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="24">
         <v>53</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="24">
         <v>60</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27">
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25">
         <v>42151</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="26">
+      <c r="J35" s="31"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="24">
         <v>60.99</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="21">
+      <c r="A36" s="19">
         <v>42145</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>600291</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="17">
         <v>38.03</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>37.799999999999997</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="17">
         <v>42.33</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="17">
         <v>38.01</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7"/>
@@ -1969,7 +1971,7 @@
         <v>2538</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D37" s="8">
         <v>14.24</v>
@@ -1989,71 +1991,79 @@
       <c r="I37" s="9">
         <v>42150</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="30">
         <v>258.70999999999998</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" s="28" customFormat="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25">
+    <row r="38" spans="1:12" s="26" customFormat="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23">
         <v>300326</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="26">
+      <c r="C38" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="24">
         <v>67.900000000000006</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="24">
         <v>67</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="24">
         <v>85</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27">
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25">
         <v>42152</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19">
+      <c r="J38" s="31"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="21" customFormat="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7">
         <v>600633</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="19">
+      <c r="C39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="8">
         <v>27.15</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8">
         <v>30</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="8">
         <v>27.19</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-    </row>
-    <row r="40" spans="1:12" s="29" customFormat="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24">
+      <c r="H39" s="8">
+        <v>30.22</v>
+      </c>
+      <c r="I39" s="9">
+        <v>42165</v>
+      </c>
+      <c r="J39" s="42">
+        <v>595.66999999999996</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0.1114</v>
+      </c>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" s="27" customFormat="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22">
         <v>2330</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>53</v>
+      <c r="C40" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="D40" s="12">
         <v>16.96</v>
@@ -2071,7 +2081,7 @@
       <c r="I40" s="11">
         <v>42159</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="33">
         <v>-554.6</v>
       </c>
       <c r="K40" s="13">
@@ -2079,30 +2089,30 @@
       </c>
       <c r="L40" s="12"/>
     </row>
-    <row r="41" spans="1:12" s="28" customFormat="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25">
+    <row r="41" spans="1:12" s="26" customFormat="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23">
         <v>300321</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="26">
+      <c r="C41" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="24">
         <v>88.98</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26">
+      <c r="E41" s="24"/>
+      <c r="F41" s="24">
         <v>100</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27">
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25">
         <v>42146</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26" t="s">
-        <v>61</v>
+      <c r="J41" s="31"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2113,13 +2123,13 @@
         <v>600202</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3">
         <v>13.89</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F42" s="3">
         <v>15.4</v>
@@ -2129,7 +2139,7 @@
       <c r="I42" s="5">
         <v>42149</v>
       </c>
-      <c r="J42" s="32"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
@@ -2139,7 +2149,7 @@
         <v>600061</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D43" s="8">
         <v>30.45</v>
@@ -2159,7 +2169,7 @@
       <c r="I43" s="9">
         <v>42149</v>
       </c>
-      <c r="J43" s="33">
+      <c r="J43" s="30">
         <v>600.91</v>
       </c>
       <c r="K43" s="8"/>
@@ -2171,7 +2181,7 @@
         <v>812</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" s="3">
         <v>14.23</v>
@@ -2187,7 +2197,7 @@
       <c r="I44" s="5">
         <v>42157</v>
       </c>
-      <c r="J44" s="32"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
@@ -2197,7 +2207,7 @@
         <v>601700</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3">
         <v>15.21</v>
@@ -2213,19 +2223,19 @@
       <c r="I45" s="5">
         <v>42151</v>
       </c>
-      <c r="J45" s="32"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="4"/>
       <c r="L45" s="3">
         <v>18.05</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="23" customFormat="1">
+    <row r="46" spans="1:12" s="21" customFormat="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8">
         <v>987</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D46" s="8">
         <v>35.39</v>
@@ -2245,7 +2255,7 @@
       <c r="I46" s="9">
         <v>42157</v>
       </c>
-      <c r="J46" s="33">
+      <c r="J46" s="30">
         <v>1401.35</v>
       </c>
       <c r="K46" s="10">
@@ -2253,37 +2263,37 @@
       </c>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12" s="29" customFormat="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12">
+    <row r="47" spans="1:12" s="21" customFormat="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8">
         <v>680</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="12">
+      <c r="C47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="8">
         <v>10.42</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="8">
         <v>10.3</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="8">
         <v>12.2</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="8">
         <v>10.41</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="8">
         <v>10.62</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="9">
         <v>42157</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="30">
         <v>65.709999999999994</v>
       </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="3"/>
@@ -2291,7 +2301,7 @@
         <v>967</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3">
         <v>28</v>
@@ -2307,181 +2317,191 @@
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="32"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14">
+    <row r="49" spans="1:12" s="21" customFormat="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8">
         <v>2685</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="14">
+      <c r="C49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="8">
         <v>17.88</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="8">
         <v>17.88</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="8">
         <v>22.5</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="8">
         <v>19.04</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="8">
         <v>22.28</v>
       </c>
       <c r="I49" s="9">
         <v>42151</v>
       </c>
-      <c r="J49" s="33">
+      <c r="J49" s="30">
         <v>316.72000000000003</v>
       </c>
       <c r="K49" s="8"/>
-      <c r="L49" s="15"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="21">
+      <c r="A50" s="19">
         <v>42151</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="17">
         <v>2148</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>69</v>
+      <c r="C50" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="D50" s="2">
         <v>34.99</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19">
+      <c r="E50" s="17"/>
+      <c r="F50" s="17">
         <v>38</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="17">
         <v>34.520000000000003</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" s="21" customFormat="1">
       <c r="A51" s="7"/>
-      <c r="B51" s="19">
+      <c r="B51" s="7">
         <v>2207</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="8">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8">
+        <v>38</v>
+      </c>
+      <c r="G51" s="8">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="H51" s="8">
+        <v>32.76</v>
+      </c>
+      <c r="I51" s="9">
+        <v>42163</v>
+      </c>
+      <c r="J51" s="42">
+        <v>249.19</v>
+      </c>
+      <c r="K51" s="10">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" s="26" customFormat="1">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23">
+        <v>300104</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="24">
+        <v>74.89</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24">
+        <v>85</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="28"/>
+      <c r="B53" s="23">
+        <v>300058</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="2">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="3">
-        <v>38</v>
-      </c>
-      <c r="G51" s="3">
-        <v>32.409999999999997</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" s="28" customFormat="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25">
-        <v>300104</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="26">
-        <v>74.89</v>
-      </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26">
-        <v>85</v>
-      </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="30"/>
-      <c r="B53" s="25">
-        <v>300058</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="26">
+      <c r="D53" s="24">
         <v>39.880000000000003</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="24">
         <v>39.5</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="24">
         <v>45</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27">
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25">
         <v>42157</v>
       </c>
-      <c r="J53" s="34"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26">
+      <c r="J53" s="31"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24">
         <v>46.62</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="29" customFormat="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24">
+    <row r="54" spans="1:12" s="21" customFormat="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7">
         <v>600221</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="12">
+      <c r="C54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="8">
         <v>6.03</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="8">
         <v>6</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="8">
         <v>7</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="8">
         <v>5.88</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="8">
         <v>5.92</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="9">
         <v>42160</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="42">
         <v>32.83</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" s="23" customFormat="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7">
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" s="21" customFormat="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8">
         <v>2467</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>74</v>
+      <c r="C55" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D55" s="8">
         <v>22.93</v>
@@ -2501,7 +2521,7 @@
       <c r="I55" s="9">
         <v>42159</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J55" s="30">
         <v>1565.43</v>
       </c>
       <c r="K55" s="10">
@@ -2509,85 +2529,103 @@
       </c>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1">
+    <row r="56" spans="1:12" s="21" customFormat="1">
+      <c r="A56" s="9">
         <v>42152</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="8">
         <v>600180</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="8">
         <v>43.79</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="8">
         <v>43.5</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="8">
         <v>48.5</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="8">
         <v>43.13</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2">
+      <c r="H56" s="8">
+        <v>45.48</v>
+      </c>
+      <c r="I56" s="9">
+        <v>42163</v>
+      </c>
+      <c r="J56" s="42">
+        <v>456.61</v>
+      </c>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12" s="21" customFormat="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7">
         <v>600095</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="C57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="8">
         <v>15.97</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="8">
         <v>15.8</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="8">
         <v>18</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="8">
         <v>16.11</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3">
+      <c r="H57" s="8">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="I57" s="9">
+        <v>42164</v>
+      </c>
+      <c r="J57" s="42">
+        <v>802.21</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:12" s="27" customFormat="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12">
         <v>601519</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C58" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="12">
         <v>31.73</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="12">
         <v>31.7</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="12">
         <v>38</v>
       </c>
-      <c r="G58" s="3">
-        <v>29.95</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="3"/>
+      <c r="G58" s="12">
+        <v>30.03</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="11">
+        <v>42164</v>
+      </c>
+      <c r="J58" s="33">
+        <v>-319</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="L58" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2599,61 +2637,62 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="19"/>
-    <col min="5" max="5" width="12.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="19"/>
-    <col min="9" max="9" width="10.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="19"/>
-    <col min="12" max="12" width="12.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="17"/>
+    <col min="5" max="5" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="17"/>
+    <col min="8" max="8" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="17"/>
+    <col min="12" max="12" width="12.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>67</v>
+      <c r="K1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2664,7 +2703,7 @@
         <v>600112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3">
         <v>31.72</v>
@@ -2682,23 +2721,23 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" s="26" customFormat="1">
-      <c r="B3" s="26">
+    <row r="3" spans="1:12" s="24" customFormat="1">
+      <c r="B3" s="24">
         <v>300064</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="C3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="24">
         <v>20</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>19.7</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>23.5</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3"/>
@@ -2706,7 +2745,7 @@
         <v>2018</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3">
         <v>36.69</v>
@@ -2732,7 +2771,7 @@
         <v>600031</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2">
         <v>13.57</v>
@@ -2756,7 +2795,7 @@
         <v>505</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2">
         <v>17.12</v>
@@ -2780,7 +2819,7 @@
         <v>975</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
         <v>25.86</v>
@@ -2798,163 +2837,300 @@
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
+    <row r="8" spans="1:12" s="12" customFormat="1">
+      <c r="A8" s="43">
         <v>42158</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="22">
         <v>2195</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12">
+        <v>70.17</v>
+      </c>
+      <c r="E8" s="12">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F8" s="12">
+        <v>82</v>
+      </c>
+      <c r="G8" s="12">
+        <v>69.87</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="11">
+        <v>42164</v>
+      </c>
+      <c r="J8" s="12">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="24" customFormat="1">
+      <c r="B9" s="24">
+        <v>300055</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="24">
+        <v>39.96</v>
+      </c>
+      <c r="E9" s="24">
+        <v>39.5</v>
+      </c>
+      <c r="F9" s="24">
+        <v>45</v>
+      </c>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="19">
+        <v>42159</v>
+      </c>
+      <c r="B10" s="17">
+        <v>600035</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="17">
+        <v>8.85</v>
+      </c>
+      <c r="E10" s="17">
+        <v>8.6</v>
+      </c>
+      <c r="F10" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="17">
+        <v>601558</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="17">
+        <v>9.75</v>
+      </c>
+      <c r="E11" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="F11" s="17">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="19">
+        <v>42160</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2540</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="17">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="E12" s="17">
+        <v>18.5</v>
+      </c>
+      <c r="F12" s="17">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="17">
+        <v>600507</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="17">
+        <v>9.44</v>
+      </c>
+      <c r="E13" s="17">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13" s="17">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="17">
+        <v>601390</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="3">
-        <v>70.17</v>
-      </c>
-      <c r="E8" s="3">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="F8" s="3">
-        <v>82</v>
-      </c>
-      <c r="G8" s="3">
-        <v>66.88</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" s="26" customFormat="1">
-      <c r="B9" s="26">
-        <v>300055</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="D14" s="17">
+        <v>20.97</v>
+      </c>
+      <c r="E14" s="17">
+        <v>20.97</v>
+      </c>
+      <c r="F14" s="17">
+        <v>23.2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="17">
+        <v>600005</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="26">
-        <v>39.96</v>
-      </c>
-      <c r="E9" s="26">
-        <v>39.5</v>
-      </c>
-      <c r="F9" s="26">
-        <v>45</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="21">
-        <v>42159</v>
-      </c>
-      <c r="B10" s="19">
-        <v>600035</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="D15" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="E15" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="F15" s="17">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19">
+        <v>42163</v>
+      </c>
+      <c r="B16" s="17">
+        <v>600528</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="19">
-        <v>8.85</v>
-      </c>
-      <c r="E10" s="19">
-        <v>8.6</v>
-      </c>
-      <c r="F10" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="19">
-        <v>601558</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="19">
-        <v>9.75</v>
-      </c>
-      <c r="E11" s="19">
-        <v>9.5</v>
-      </c>
-      <c r="F11" s="19">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="21">
-        <v>42160</v>
-      </c>
-      <c r="B12" s="19">
-        <v>2540</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="19">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="E12" s="19">
-        <v>18.5</v>
-      </c>
-      <c r="F12" s="19">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="19">
-        <v>600507</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="19">
-        <v>9.44</v>
-      </c>
-      <c r="E13" s="19">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F13" s="19">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="19">
-        <v>601390</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="D16" s="17">
+        <v>26.12</v>
+      </c>
+      <c r="E16" s="17">
+        <v>26.12</v>
+      </c>
+      <c r="F16" s="17">
+        <v>30</v>
+      </c>
+      <c r="G16" s="17">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="17">
+        <v>600545</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="19">
-        <v>20.97</v>
-      </c>
-      <c r="E14" s="19">
-        <v>20.97</v>
-      </c>
-      <c r="F14" s="19">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="19">
-        <v>600005</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="D17" s="17">
+        <v>22.08</v>
+      </c>
+      <c r="E17" s="17">
+        <v>22.08</v>
+      </c>
+      <c r="F17" s="17">
+        <v>25</v>
+      </c>
+      <c r="G17" s="17">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="17">
+        <v>601618</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="19">
-        <v>6.9</v>
-      </c>
-      <c r="E15" s="19">
-        <v>6.9</v>
-      </c>
-      <c r="F15" s="19">
-        <v>8.1999999999999993</v>
+      <c r="D18" s="17">
+        <v>10.18</v>
+      </c>
+      <c r="E18" s="17">
+        <v>10.18</v>
+      </c>
+      <c r="F18" s="17">
+        <v>11.5</v>
+      </c>
+      <c r="G18" s="17">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="19">
+        <v>42164</v>
+      </c>
+      <c r="B19" s="17">
+        <v>601600</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="E19" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="F19" s="17">
+        <v>12</v>
+      </c>
+      <c r="G19" s="17">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19">
+        <v>42165</v>
+      </c>
+      <c r="B20" s="17">
+        <v>600068</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="17">
+        <v>14.27</v>
+      </c>
+      <c r="E20" s="17">
+        <v>14.27</v>
+      </c>
+      <c r="F20" s="17">
+        <v>15.6</v>
+      </c>
+      <c r="G20" s="17">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19">
+        <v>42166</v>
+      </c>
+      <c r="B21" s="17">
+        <v>517</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="17">
+        <v>25.2</v>
+      </c>
+      <c r="E21" s="17">
+        <v>25</v>
+      </c>
+      <c r="F21" s="17">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2968,69 +3144,69 @@
   <sheetPr published="0"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="11.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="45"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="38">
+      <c r="A4" s="35">
         <v>42143</v>
       </c>
       <c r="B4" s="2"/>
@@ -3038,35 +3214,35 @@
       <c r="D4" s="7">
         <v>1800</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38">
+      <c r="A5" s="35">
         <v>42144</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>-180</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="38">
+      <c r="A6" s="35">
         <v>42145</v>
       </c>
       <c r="B6" s="2"/>
@@ -3074,17 +3250,17 @@
       <c r="D6" s="7">
         <v>2164</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38">
+      <c r="A7" s="35">
         <v>42146</v>
       </c>
       <c r="B7" s="2">
@@ -3096,17 +3272,17 @@
       <c r="D7" s="7">
         <v>956</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38">
+      <c r="A8" s="35">
         <v>42149</v>
       </c>
       <c r="B8" s="2">
@@ -3118,17 +3294,17 @@
       <c r="D8" s="7">
         <v>1954</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38">
+      <c r="A9" s="35">
         <v>42150</v>
       </c>
       <c r="B9" s="2">
@@ -3137,7 +3313,7 @@
       <c r="C9" s="2">
         <v>88275</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>2942</v>
       </c>
       <c r="E9" s="8"/>
@@ -3150,7 +3326,7 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="38">
+      <c r="A10" s="35">
         <v>42151</v>
       </c>
       <c r="B10" s="2">
@@ -3159,20 +3335,20 @@
       <c r="C10" s="2">
         <v>137330</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>-899</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="38">
+      <c r="A11" s="35">
         <v>42152</v>
       </c>
       <c r="B11" s="2">
@@ -3181,20 +3357,20 @@
       <c r="C11" s="2">
         <v>136574</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>-10701</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38">
+      <c r="A12" s="35">
         <v>42153</v>
       </c>
       <c r="B12" s="2">
@@ -3203,20 +3379,20 @@
       <c r="C12" s="2">
         <v>134930</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>-1625</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38">
+      <c r="A13" s="35">
         <v>42156</v>
       </c>
       <c r="B13" s="2">
@@ -3225,20 +3401,20 @@
       <c r="C13" s="2">
         <v>142197</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="7">
         <v>7267</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="38">
+      <c r="A14" s="35">
         <v>42157</v>
       </c>
       <c r="B14" s="2">
@@ -3247,20 +3423,20 @@
       <c r="C14" s="2">
         <v>145816</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="7">
         <v>3619</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38">
+      <c r="A15" s="35">
         <v>42158</v>
       </c>
       <c r="B15" s="2">
@@ -3269,20 +3445,20 @@
       <c r="C15" s="2">
         <v>146656</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="7">
         <v>840</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="38">
+      <c r="A16" s="35">
         <v>42159</v>
       </c>
       <c r="B16" s="2">
@@ -3291,20 +3467,20 @@
       <c r="C16" s="2">
         <v>145913</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>-743</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="38">
+      <c r="A17" s="35">
         <v>42160</v>
       </c>
       <c r="B17" s="2">
@@ -3313,101 +3489,125 @@
       <c r="C17" s="2">
         <v>149217</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="7">
         <v>3304</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="38"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="35">
+        <v>42163</v>
+      </c>
+      <c r="B18" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>146473</v>
+      </c>
+      <c r="D18" s="22">
+        <v>-2744</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="38"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
+      <c r="A19" s="35">
+        <v>42164</v>
+      </c>
+      <c r="B19" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>145785</v>
+      </c>
+      <c r="D19" s="22">
+        <v>-688</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="38"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="A20" s="35">
+        <v>42164</v>
+      </c>
+      <c r="B20" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>145703</v>
+      </c>
+      <c r="D20" s="22">
+        <v>-82</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="38"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="38"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="38"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19575" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19575" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2015年5月" sheetId="5" r:id="rId1"/>
     <sheet name="2015年6月" sheetId="3" r:id="rId2"/>
-    <sheet name="汇总" sheetId="6" r:id="rId3"/>
+    <sheet name="月下拾金" sheetId="7" r:id="rId3"/>
+    <sheet name="汇总" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +411,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>61.18/62.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙报传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州煤电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏城投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新疆城建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,27 +439,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>61.18/62.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国铝业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈高科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>葛洲坝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浙报传媒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>荣安地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建仓价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st东数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇鸿股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡亚通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大名城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电广通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得润电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香雪制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金叶珠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华伍股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海钢联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安硕信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪安诊断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +656,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -587,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +839,30 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,9 +1162,9 @@
   <sheetPr published="0"/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2031,7 +2176,7 @@
         <v>600633</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39" s="8">
         <v>27.15</v>
@@ -2353,31 +2498,39 @@
       <c r="K49" s="8"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="19">
+    <row r="50" spans="1:12" s="21" customFormat="1">
+      <c r="A50" s="6">
         <v>42151</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="7">
         <v>2148</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="8">
         <v>34.99</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17">
+      <c r="E50" s="8"/>
+      <c r="F50" s="8">
         <v>38</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="8">
         <v>34.520000000000003</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
+      <c r="H50" s="8">
+        <v>36.24</v>
+      </c>
+      <c r="I50" s="9">
+        <v>42170</v>
+      </c>
+      <c r="J50" s="42">
+        <v>336.7</v>
+      </c>
+      <c r="K50" s="10">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12" s="21" customFormat="1">
       <c r="A51" s="7"/>
@@ -2569,7 +2722,7 @@
         <v>600095</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D57" s="8">
         <v>15.97</v>
@@ -2637,11 +2790,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2758,10 +2911,14 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>42167</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>44.09</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -2784,10 +2941,14 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="5">
+        <v>42167</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>14.33</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
@@ -2808,10 +2969,14 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="5">
+        <v>42167</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>19.149999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
@@ -2860,7 +3025,7 @@
         <v>69.87</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I8" s="11">
         <v>42164</v>
@@ -2960,6 +3125,12 @@
       <c r="F13" s="17">
         <v>10.45</v>
       </c>
+      <c r="I13" s="5">
+        <v>42167</v>
+      </c>
+      <c r="L13" s="17">
+        <v>12.79</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="17">
@@ -3021,110 +3192,232 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="17">
+    <row r="17" spans="1:11" s="12" customFormat="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22">
         <v>600545</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="12">
         <v>22.08</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>22.08</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>25</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="12">
         <v>21.23</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="17">
+      <c r="H17" s="12">
+        <v>20.92</v>
+      </c>
+      <c r="I17" s="11">
+        <v>42171</v>
+      </c>
+      <c r="J17" s="12">
+        <v>-212.32</v>
+      </c>
+      <c r="K17" s="13">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1">
+      <c r="B18" s="12">
         <v>601618</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="C18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="12">
         <v>10.18</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="12">
         <v>10.18</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <v>11.5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="12">
         <v>10.210000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="H18" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I18" s="11">
+        <v>42171</v>
+      </c>
+      <c r="J18" s="12">
+        <v>-555.21</v>
+      </c>
+      <c r="K18" s="13">
+        <v>-0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1">
+      <c r="A19" s="11">
         <v>42164</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="12">
         <v>601600</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="12">
+        <v>10.7</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="F19" s="12">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12">
+        <v>10.41</v>
+      </c>
+      <c r="H19" s="12">
+        <v>9.84</v>
+      </c>
+      <c r="I19" s="11">
+        <v>42171</v>
+      </c>
+      <c r="J19" s="12">
+        <v>-936.71</v>
+      </c>
+      <c r="K19" s="13">
+        <v>-5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1">
+      <c r="A20" s="11">
+        <v>42165</v>
+      </c>
+      <c r="B20" s="12">
+        <v>600068</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="12">
+        <v>14.27</v>
+      </c>
+      <c r="E20" s="12">
+        <v>14.27</v>
+      </c>
+      <c r="F20" s="12">
+        <v>15.6</v>
+      </c>
+      <c r="G20" s="12">
+        <v>14.33</v>
+      </c>
+      <c r="H20" s="12">
+        <v>13.34</v>
+      </c>
+      <c r="I20" s="11">
+        <v>42171</v>
+      </c>
+      <c r="J20" s="12">
+        <v>-507.32</v>
+      </c>
+      <c r="K20" s="13">
+        <v>-6.9099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1">
+      <c r="A21" s="6">
+        <v>42166</v>
+      </c>
+      <c r="B21" s="7">
+        <v>517</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8">
+        <v>27</v>
+      </c>
+      <c r="G21" s="8">
+        <v>24.89</v>
+      </c>
+      <c r="H21" s="8">
+        <v>24.95</v>
+      </c>
+      <c r="I21" s="9">
+        <v>42171</v>
+      </c>
+      <c r="J21" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="K21" s="10">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17">
+        <v>600121</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="17">
-        <v>10.7</v>
-      </c>
-      <c r="E19" s="17">
-        <v>10.5</v>
-      </c>
-      <c r="F19" s="17">
-        <v>12</v>
-      </c>
-      <c r="G19" s="17">
-        <v>10.41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>42165</v>
-      </c>
-      <c r="B20" s="17">
-        <v>600068</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="17">
-        <v>14.27</v>
-      </c>
-      <c r="E20" s="17">
-        <v>14.27</v>
-      </c>
-      <c r="F20" s="17">
-        <v>15.6</v>
-      </c>
-      <c r="G20" s="17">
-        <v>14.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
-        <v>42166</v>
-      </c>
-      <c r="B21" s="17">
-        <v>517</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="17">
-        <v>25.2</v>
-      </c>
-      <c r="E21" s="17">
-        <v>25</v>
-      </c>
-      <c r="F21" s="17">
+      <c r="D22" s="17">
+        <v>10.76</v>
+      </c>
+      <c r="E22" s="17">
+        <v>10.76</v>
+      </c>
+      <c r="F22" s="17">
+        <v>11.8</v>
+      </c>
+      <c r="I22" s="9">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="19">
+        <v>42167</v>
+      </c>
+      <c r="B23" s="17">
+        <v>600773</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="17">
+        <v>24.15</v>
+      </c>
+      <c r="E23" s="17">
+        <v>24.15</v>
+      </c>
+      <c r="F23" s="17">
         <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="19">
+        <v>42172</v>
+      </c>
+      <c r="B24" s="17">
+        <v>762</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="17">
+        <v>25.28</v>
+      </c>
+      <c r="E24" s="17">
+        <v>25.28</v>
       </c>
     </row>
   </sheetData>
@@ -3142,11 +3435,341 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0"/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="47" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5">
+        <v>42023</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2248</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5">
+        <v>42048</v>
+      </c>
+      <c r="B4" s="3">
+        <v>600981</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.94</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5">
+        <v>42052</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2183</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="3">
+        <v>27.14</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5">
+        <v>42087</v>
+      </c>
+      <c r="B6" s="3">
+        <v>600094</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3">
+        <v>14.32</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="48"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" s="50" customFormat="1">
+      <c r="A8" s="49">
+        <v>42122</v>
+      </c>
+      <c r="B8" s="50">
+        <v>300244</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="50">
+        <v>106.92</v>
+      </c>
+      <c r="F8" s="50">
+        <v>164</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3">
+        <v>600764</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="3">
+        <v>23.18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="3">
+        <v>2055</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="3">
+        <v>31.95</v>
+      </c>
+      <c r="F10" s="3">
+        <v>54</v>
+      </c>
+      <c r="I10" s="5">
+        <v>42145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="50" customFormat="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50">
+        <v>300147</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="50">
+        <v>24.26</v>
+      </c>
+      <c r="F11" s="50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5">
+        <v>42145</v>
+      </c>
+      <c r="B12" s="3">
+        <v>587</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30.87</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="50" customFormat="1">
+      <c r="A13" s="49">
+        <v>42149</v>
+      </c>
+      <c r="B13" s="50">
+        <v>300095</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="50">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="F13" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="50" customFormat="1">
+      <c r="A14" s="49">
+        <v>42153</v>
+      </c>
+      <c r="B14" s="50">
+        <v>300251</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="50">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="F14" s="50">
+        <v>76</v>
+      </c>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" s="50" customFormat="1">
+      <c r="A16" s="49">
+        <v>42136</v>
+      </c>
+      <c r="B16" s="50">
+        <v>300226</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="50">
+        <v>154.97999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5">
+        <v>42160</v>
+      </c>
+      <c r="B17" s="3">
+        <v>600528</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="50" customFormat="1">
+      <c r="A18" s="49">
+        <v>42167</v>
+      </c>
+      <c r="B18" s="50">
+        <v>300380</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="50">
+        <v>158.61000000000001</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="I19" s="5"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr published="0"/>
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3547,7 +4170,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="35">
-        <v>42164</v>
+        <v>42165</v>
       </c>
       <c r="B20" s="2">
         <v>139000</v>
@@ -3568,10 +4191,18 @@
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="35"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="35">
+        <v>42166</v>
+      </c>
+      <c r="B21" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>146599</v>
+      </c>
+      <c r="D21" s="7">
+        <v>896</v>
+      </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -3582,10 +4213,18 @@
       <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="35"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="35">
+        <v>42167</v>
+      </c>
+      <c r="B22" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>145184</v>
+      </c>
+      <c r="D22" s="22">
+        <v>-1415</v>
+      </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -3596,10 +4235,18 @@
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="35"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="35">
+        <v>42170</v>
+      </c>
+      <c r="B23" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>141910</v>
+      </c>
+      <c r="D23" s="22">
+        <v>-3274</v>
+      </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -3609,6 +4256,189 @@
       <c r="K23" s="38"/>
       <c r="L23" s="39"/>
     </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="35">
+        <v>42171</v>
+      </c>
+      <c r="B24" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>137336</v>
+      </c>
+      <c r="D24" s="22">
+        <v>-4574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="35">
+        <v>42172</v>
+      </c>
+      <c r="B25" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>139341</v>
+      </c>
+      <c r="D25" s="44">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="35">
+        <v>42173</v>
+      </c>
+      <c r="B26" s="2">
+        <v>139000</v>
+      </c>
+      <c r="C26" s="16">
+        <v>134965</v>
+      </c>
+      <c r="D26" s="45">
+        <v>-4376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="35">
+        <v>42174</v>
+      </c>
+      <c r="B27" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C27" s="16">
+        <v>174814</v>
+      </c>
+      <c r="D27" s="45">
+        <v>-10151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="35">
+        <v>42178</v>
+      </c>
+      <c r="B28" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C28" s="16">
+        <v>177616</v>
+      </c>
+      <c r="D28" s="44">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="35">
+        <v>42179</v>
+      </c>
+      <c r="B29" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C29" s="16">
+        <v>181078</v>
+      </c>
+      <c r="D29" s="44">
+        <v>3462</v>
+      </c>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="35">
+        <v>42180</v>
+      </c>
+      <c r="B30" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C30" s="16">
+        <v>176162</v>
+      </c>
+      <c r="D30" s="45">
+        <v>-4916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="35">
+        <v>42181</v>
+      </c>
+      <c r="B31" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C31" s="16">
+        <v>165799</v>
+      </c>
+      <c r="D31" s="45">
+        <v>-10363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="35">
+        <v>42184</v>
+      </c>
+      <c r="B32" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C32" s="16">
+        <v>154509</v>
+      </c>
+      <c r="D32" s="45">
+        <v>-11290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="35">
+        <v>42185</v>
+      </c>
+      <c r="B33" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C33" s="16">
+        <v>161959</v>
+      </c>
+      <c r="D33" s="44">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="35">
+        <v>42186</v>
+      </c>
+      <c r="B34" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C34" s="16">
+        <v>150431</v>
+      </c>
+      <c r="D34" s="45">
+        <v>-11528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="35">
+        <v>42187</v>
+      </c>
+      <c r="B35" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C35" s="16">
+        <v>143002</v>
+      </c>
+      <c r="D35" s="45">
+        <v>-7429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="35">
+        <v>42188</v>
+      </c>
+      <c r="B36" s="2">
+        <v>189000</v>
+      </c>
+      <c r="C36" s="16">
+        <v>134723</v>
+      </c>
+      <c r="D36" s="45">
+        <v>-8279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
